--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2547312.748555186</v>
+        <v>2651492.383006257</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110.1842403900289</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>62.45439117602642</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>173.182063202065</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>16.90415318435457</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>90.55308040755064</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>88.32034618220801</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>98.90246112264842</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>133.5808755818449</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>282.8791992932311</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>214.0225543283474</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>124.3829282861647</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>69.9176400685913</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701367</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>41.74133133758806</v>
       </c>
       <c r="D13" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1658,13 +1660,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>173.105315459463</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>36.86080948088104</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,19 +1815,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>138.534312581592</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>108.3764982651496</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>77.93612009725524</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>141.9101287729434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>66.39615665301106</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>14.19454216862652</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>84.53948348634549</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881257</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.56584948763671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,19 +3243,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618059</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.29785174158985</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>208.7327685259489</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>1.594095449514225</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>40.37234576591469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4186,13 +4188,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>37.01163236946515</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1197.073083428566</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2045.678034185613</v>
+        <v>2339.80831455015</v>
       </c>
       <c r="C4" t="n">
-        <v>1876.741851257706</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="D4" t="n">
-        <v>1876.741851257706</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.741851257706</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759796</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134515</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435996</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005523</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="U4" t="n">
-        <v>2623.050455131166</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="V4" t="n">
-        <v>2448.119078159383</v>
+        <v>2759.324260730339</v>
       </c>
       <c r="W4" t="n">
-        <v>2448.119078159383</v>
+        <v>2742.24935852392</v>
       </c>
       <c r="X4" t="n">
-        <v>2448.119078159383</v>
+        <v>2742.24935852392</v>
       </c>
       <c r="Y4" t="n">
-        <v>2227.326499015853</v>
+        <v>2521.45677938039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1753.263343671913</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1384.300826731501</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1026.035128124751</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1026.035128124751</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>615.0492233351431</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>199.9767731801396</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4571,10 +4573,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2666.594457903205</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W5" t="n">
-        <v>2313.82580263309</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X5" t="n">
-        <v>2313.82580263309</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y5" t="n">
-        <v>1923.686470657279</v>
+        <v>2139.863183736034</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>798.5065461617548</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C7" t="n">
-        <v>629.570363233848</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
         <v>331.5406302391191</v>
@@ -4714,13 +4716,13 @@
         <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1792.364370733094</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1570.59775530262</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1570.59775530262</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1315.913267096733</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1026.496097059772</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>798.5065461617548</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>798.5065461617548</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575.942324366272</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.03470992366</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>1966.081656342083</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1575.942324366272</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>659.1173538559957</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>490.1811709280888</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>340.0645315157531</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>192.1514379333599</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>192.1514379333599</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036487</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995258</v>
+        <v>1575.154327815684</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9099329995258</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.1173538559957</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,10 +5044,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,25 +5056,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397182</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194325</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2527.96527192868</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5306,22 +5308,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>985.7836617409695</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C16" t="n">
-        <v>816.8474788130626</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.214256612757</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.224705714739</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.432126571209</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5506,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,25 +5597,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>783.5579673960132</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1004.350546539543</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>783.5579673960132</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>2726.91413360155</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>3324.292621228102</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>3951.890584782709</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>4267.210002903525</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3160.179968880559</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>2991.243785952652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>2881.772575583814</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2733.859482001421</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>4623.787448650995</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>4334.712221995193</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>4080.027733789307</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3790.610563752346</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3562.621012854329</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3341.828433710799</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5990,7 +5992,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3025.224490384403</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>2856.288307456496</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>3571.009098775287</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>3427.665534358173</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>3206.872955214643</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,16 +6253,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>2726.91413360155</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M27" t="n">
-        <v>3324.292621228102</v>
+        <v>691.1951506745235</v>
       </c>
       <c r="N27" t="n">
-        <v>3951.890584782709</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>4457.571492023711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2527.587654338367</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>1030.918378293891</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>861.9821953659841</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057155</v>
+        <v>711.8655559536484</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>563.9524623712553</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>417.0625148733449</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>249.8664155882248</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>108.1545844304229</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>1212.566843124131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6460,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6497,16 +6499,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.9745311434712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>701.0383482155643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>550.9217088032285</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>403.0086152208354</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>403.0086152208354</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6622,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117241</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.622995973711</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6767,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>3260.45052572977</v>
       </c>
       <c r="C34" t="n">
-        <v>699.73118040114</v>
+        <v>3091.514342801863</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>2941.397703389528</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>2793.484609807134</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>2646.594662309224</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024104</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866302</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866302</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296626</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822165</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998105</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729139</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389147</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098132</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671691</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650993</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305897</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328838</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>4145.565608807444</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>3890.881120601557</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>3890.881120601557</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>3662.89156970354</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>3442.09899056001</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3173.601046153952</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328841</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122954</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.229491085994</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.239940187977</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.447361044447</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7214,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532803</v>
+        <v>2951.54259528685</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253734</v>
+        <v>2782.606412358944</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>2632.489772946608</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>2484.576679364215</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4415.150075057287</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>4126.074848401485</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3871.390360195598</v>
       </c>
       <c r="W40" t="n">
-        <v>1432.091168225067</v>
+        <v>3581.973190158637</v>
       </c>
       <c r="X40" t="n">
-        <v>1204.10161732705</v>
+        <v>3353.98363926062</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.30903818352</v>
+        <v>3133.19106011709</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>2716.927329289434</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>3241.424143276705</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
-        <v>3869.022106831312</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O42" t="n">
-        <v>4420.931837070599</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>989.3306680894883</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>820.3944851615814</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>1170.979132919728</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,22 +7730,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7834,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>125.5054897610398</v>
       </c>
       <c r="D13" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6.726664722474339</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>87.17534280744519</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.23897475306273</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>83.79952661609377</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>80.03780599355811</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>67.07129414993904</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>80.98465480592336</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24971,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>132.6809716109911</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>211.1765892730635</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>125.5341284403474</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>77.45170586329527</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>191.8807364711615</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>284.9289028870768</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>215.1260109543628</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407396</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.20504074</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914267</v>
-      </c>
-      <c r="C2" t="n">
-        <v>656833.4158914264</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
         <v>645717.279752005</v>
@@ -26335,13 +26337,13 @@
         <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520049</v>
@@ -26350,7 +26352,7 @@
         <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520049</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316935</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26439,16 +26441,16 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181823</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26522,19 +26524,19 @@
         <v>-871419.2253507286</v>
       </c>
       <c r="C6" t="n">
-        <v>457325.5203768637</v>
+        <v>457325.5203768638</v>
       </c>
       <c r="D6" t="n">
-        <v>457325.5203768639</v>
+        <v>457325.5203768641</v>
       </c>
       <c r="E6" t="n">
-        <v>206795.3679389248</v>
+        <v>206795.3679389242</v>
       </c>
       <c r="F6" t="n">
-        <v>532207.82974628</v>
+        <v>532207.8297462802</v>
       </c>
       <c r="G6" t="n">
-        <v>532207.8297462797</v>
+        <v>532207.8297462796</v>
       </c>
       <c r="H6" t="n">
         <v>532207.8297462799</v>
@@ -26543,22 +26545,22 @@
         <v>532207.8297462797</v>
       </c>
       <c r="J6" t="n">
-        <v>314676.6273490021</v>
+        <v>314676.6273490025</v>
       </c>
       <c r="K6" t="n">
+        <v>532207.8297462794</v>
+      </c>
+      <c r="L6" t="n">
         <v>532207.8297462796</v>
       </c>
-      <c r="L6" t="n">
-        <v>532207.8297462801</v>
-      </c>
       <c r="M6" t="n">
-        <v>447152.8018107679</v>
+        <v>447152.8018107677</v>
       </c>
       <c r="N6" t="n">
         <v>532207.8297462797</v>
       </c>
       <c r="O6" t="n">
-        <v>532207.8297462799</v>
+        <v>532207.8297462796</v>
       </c>
       <c r="P6" t="n">
         <v>532207.8297462797</v>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.573985479031266e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.573985479031266e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.573985479031266e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272.5496012734517</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>302.8185005949811</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>78.95558012176303</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>269.6188451522364</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>204.0546839797698</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>239.4319122879269</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>80.92951905928888</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>56.18814974959702</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>99.05117077903071</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>155.7085463501217</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>41.64287997286348</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>216.6053582679997</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28147,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.466269159168906e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28378,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-5.081056635332486e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29329,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29524,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29995,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31843,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>488.7223436347922</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.3312853305619</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32075,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,16 +32317,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948335</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32491,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32555,25 +32557,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927443</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32716,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32786,22 +32788,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33029,31 +33031,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>653.3850396373766</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>171.410447117911</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>565.8030433278964</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>363.537151478685</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33503,31 +33505,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>423.9151577118742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319862</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33736,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33913,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,10 +33982,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N39" t="n">
-        <v>344.2757660550399</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33994,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,19 +34207,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,13 +34450,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>560.1612034965808</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,10 +34465,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>350.167963854918</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.34951124454038</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>116.3353646931863</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281522</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627482999</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>510.7887951929322</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.73094315394708</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>423.6690094058781</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342406</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>285.360777932</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875417</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>379.5262112417391</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,10 +37630,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N39" t="n">
-        <v>212.9340539717066</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>529.7947616033043</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>418.0271695745625</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,10 +38113,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2651492.383006257</v>
+        <v>2647479.772992265</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9038580.508304417</v>
+        <v>9038580.508304415</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>370.0648965483583</v>
       </c>
       <c r="C2" t="n">
-        <v>62.45439117602642</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>16.90415318435457</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>168.1161921880586</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>90.55308040755064</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.90246112264842</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>124.2292170629837</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>282.8791992932311</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.7944255145766</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>145.5000104076911</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>69.9176400685913</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187858</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695533</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701367</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>41.74133133758806</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.105315459463</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>77.93612009725524</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>14.19454216862652</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881257</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>11.56087338713413</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>75.00788511618059</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>208.7327685259489</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>25.52471385612679</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4649598217091</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140706</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,22 +4330,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4372,10 +4372,10 @@
         <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2339.80831455015</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>2170.872131622243</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622243</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.95903803985</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.06909054194</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916659</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3014.008748936225</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>3014.008748936225</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V4" t="n">
-        <v>2759.324260730339</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
-        <v>2742.24935852392</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X4" t="n">
-        <v>2742.24935852392</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>2521.45677938039</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1753.263343671913</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C5" t="n">
-        <v>1384.300826731501</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D5" t="n">
-        <v>1026.035128124751</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1026.035128124751</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>615.0492233351431</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>199.9767731801396</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997114</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736034</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y5" t="n">
-        <v>2139.863183736034</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.5406302391191</v>
+        <v>973.5548741173881</v>
       </c>
       <c r="C7" t="n">
-        <v>331.5406302391191</v>
+        <v>804.6186911894812</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>654.5020517771454</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>506.5889581947523</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>359.6990106968419</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>191.9961740715609</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641123</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>431.4421061205821</v>
+        <v>1155.203338947628</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1517.887535471216</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1517.887535471216</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1517.887535471216</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535338</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>973.5548741173881</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>804.6186911894812</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>654.5020517771454</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>506.5889581947523</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>359.6990106968419</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.154327815684</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.164776917667</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>1155.203338947628</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168603</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,10 +5044,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239598</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876697</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797191</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5308,22 +5308,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6253,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745235</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1030.918378293891</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>861.9821953659841</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>711.8655559536484</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E28" t="n">
-        <v>563.9524623712553</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F28" t="n">
-        <v>417.0625148733449</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>249.8664155882248</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>108.1545844304229</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1433.359422267661</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1212.566843124131</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143764</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6715,22 +6715,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6767,31 +6767,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797182</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191923</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349509</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061502</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.043492616109</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.45052572977</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801863</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.397703389528</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807134</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309224</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024104</v>
+        <v>247.2061440917678</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866302</v>
+        <v>105.4943129339659</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729139</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389147</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098132</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671691</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398591</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650993</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305897</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328838</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>4145.565608807444</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>3890.881120601557</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>3890.881120601557</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X34" t="n">
-        <v>3662.89156970354</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>3442.09899056001</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6955,34 +6955,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1833.665603928865</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2951.54259528685</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>2782.606412358944</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>2632.489772946608</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>2484.576679364215</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>4415.150075057287</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>4126.074848401485</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>3871.390360195598</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>3581.973190158637</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>3353.98363926062</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>3133.19106011709</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7639,25 +7639,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-1.115261047703417e-12</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>125.5054897610398</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.726664722474339</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>67.07129414993904</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>69.7049629314314</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>211.1765892730635</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>77.45170586329527</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>191.8807364711615</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778378.2050407396</v>
+        <v>778378.20504074</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.20504074</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="E2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
+        <v>91573.95495316936</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316944</v>
       </c>
-      <c r="D4" t="n">
-        <v>91573.95495316939</v>
-      </c>
       <c r="E4" t="n">
-        <v>12386.92018181805</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="F4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="G4" t="n">
         <v>12386.92018181809</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26441,16 +26441,16 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
+        <v>12386.92018181807</v>
+      </c>
+      <c r="M4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12386.92018181823</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-871419.2253507286</v>
+        <v>-871419.2253507287</v>
       </c>
       <c r="C6" t="n">
+        <v>457325.5203768644</v>
+      </c>
+      <c r="D6" t="n">
         <v>457325.5203768638</v>
       </c>
-      <c r="D6" t="n">
-        <v>457325.5203768641</v>
-      </c>
       <c r="E6" t="n">
-        <v>206795.3679389242</v>
+        <v>206447.9886845673</v>
       </c>
       <c r="F6" t="n">
-        <v>532207.8297462802</v>
+        <v>531860.4504919226</v>
       </c>
       <c r="G6" t="n">
-        <v>532207.8297462796</v>
+        <v>531860.4504919224</v>
       </c>
       <c r="H6" t="n">
-        <v>532207.8297462799</v>
+        <v>531860.4504919229</v>
       </c>
       <c r="I6" t="n">
-        <v>532207.8297462797</v>
+        <v>531860.4504919229</v>
       </c>
       <c r="J6" t="n">
-        <v>314676.6273490025</v>
+        <v>314329.2480946453</v>
       </c>
       <c r="K6" t="n">
-        <v>532207.8297462794</v>
+        <v>531860.4504919233</v>
       </c>
       <c r="L6" t="n">
-        <v>532207.8297462796</v>
+        <v>531860.4504919228</v>
       </c>
       <c r="M6" t="n">
-        <v>447152.8018107677</v>
+        <v>446805.4225564111</v>
       </c>
       <c r="N6" t="n">
-        <v>532207.8297462797</v>
+        <v>531860.4504919229</v>
       </c>
       <c r="O6" t="n">
-        <v>532207.8297462796</v>
+        <v>531860.4504919231</v>
       </c>
       <c r="P6" t="n">
-        <v>532207.8297462797</v>
+        <v>531860.4504919229</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26792,25 +26792,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.573985479031266e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.573985479031266e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.573985479031266e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12.66894511512231</v>
       </c>
       <c r="C2" t="n">
-        <v>302.8185005949811</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356952</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.6188451522364</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>186.5668494326243</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>204.0546839797698</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.92951905928888</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>20.52579785133712</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>99.05117077903071</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>111.443513141477</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>20.5257978513371</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>216.6053582679997</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.444841250298201e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.466269159168906e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-5.081056635332486e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>488.7223436347922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159423</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>363.537151478685</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319862</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>350.167963854918</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342406</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875417</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2647479.772992265</v>
+        <v>2649240.303295049</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.0648965483583</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>278.2405979811791</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>71.67037196991771</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>90.52240030468828</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>168.1161921880586</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>50.04052206184446</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>124.2292170629837</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145766</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>145.5000104076911</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>25.01141625626333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187858</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>30.85302310518022</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>102.1557845699818</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91555826189102</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018862</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>11.56087338713413</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.4649598217091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,10 +4348,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2257.256030805451</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1854.900232967364</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.132475219475</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C5" t="n">
-        <v>1490.169958279064</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259409</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283597</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973.5548741173881</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>804.6186911894812</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>654.5020517771454</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>506.5889581947523</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>359.6990106968419</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>191.9961740715609</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4770,7 +4770,7 @@
         <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1155.203338947628</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520488</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>973.5548741173881</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C10" t="n">
-        <v>804.6186911894812</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D10" t="n">
-        <v>654.5020517771454</v>
+        <v>91.77617325669183</v>
       </c>
       <c r="E10" t="n">
-        <v>506.5889581947523</v>
+        <v>91.77617325669183</v>
       </c>
       <c r="F10" t="n">
-        <v>359.6990106968419</v>
+        <v>91.77617325669183</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>91.77617325669183</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y10" t="n">
-        <v>1155.203338947628</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5272,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>348.7798673610725</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="17">
@@ -5494,34 +5494,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,28 +5770,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>197.0043242297717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474266</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650335</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171305</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892237</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768879</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>414.4022433768879</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>414.4022433768879</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>247.2061440917678</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>105.4943129339659</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473703</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7435,7 +7435,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,22 +7484,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.115261047703417e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>63.36835372228707</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
-        <v>125.5054897610402</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194183</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>69.7049629314314</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.20504074</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520054</v>
-      </c>
       <c r="L2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="N2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316942</v>
+      </c>
+      <c r="C4" t="n">
         <v>91573.95495316939</v>
       </c>
-      <c r="C4" t="n">
-        <v>91573.95495316936</v>
-      </c>
       <c r="D4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26447,7 +26447,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-871419.2253507287</v>
+        <v>-871419.2253507286</v>
       </c>
       <c r="C6" t="n">
-        <v>457325.5203768644</v>
+        <v>457325.5203768639</v>
       </c>
       <c r="D6" t="n">
         <v>457325.5203768638</v>
       </c>
       <c r="E6" t="n">
-        <v>206447.9886845673</v>
+        <v>206760.6300134888</v>
       </c>
       <c r="F6" t="n">
-        <v>531860.4504919226</v>
+        <v>532173.0918208443</v>
       </c>
       <c r="G6" t="n">
-        <v>531860.4504919224</v>
+        <v>532173.0918208441</v>
       </c>
       <c r="H6" t="n">
-        <v>531860.4504919229</v>
+        <v>532173.091820844</v>
       </c>
       <c r="I6" t="n">
-        <v>531860.4504919229</v>
+        <v>532173.0918208441</v>
       </c>
       <c r="J6" t="n">
-        <v>314329.2480946453</v>
+        <v>314641.8894235665</v>
       </c>
       <c r="K6" t="n">
-        <v>531860.4504919233</v>
+        <v>532173.0918208442</v>
       </c>
       <c r="L6" t="n">
-        <v>531860.4504919228</v>
+        <v>532173.091820844</v>
       </c>
       <c r="M6" t="n">
-        <v>446805.4225564111</v>
+        <v>447118.0638853321</v>
       </c>
       <c r="N6" t="n">
-        <v>531860.4504919229</v>
+        <v>532173.0918208441</v>
       </c>
       <c r="O6" t="n">
-        <v>531860.4504919231</v>
+        <v>532173.0918208442</v>
       </c>
       <c r="P6" t="n">
-        <v>531860.4504919229</v>
+        <v>532173.0918208443</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,31 +26974,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.66894511512231</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>87.03229378982849</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>214.5414662356952</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>196.0005980319027</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>186.5668494326243</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>331.8898480104173</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>20.52579785133712</v>
+        <v>73.08464294440368</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.8774149194512</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.443513141477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>20.5257978513371</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>119.7435986580575</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28064,10 +28064,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.444841250298201e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159423</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,7 +34222,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,16 +35734,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
